--- a/src/main/java/Shop/DataBase.xlsx
+++ b/src/main/java/Shop/DataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shop\src\main\java\Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02005FEF-CDC6-4AC3-8B7A-DBCC470C5D84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA029BB-4C91-4057-8CB9-DAA32D8A30CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="7" xr2:uid="{D487F39A-05D0-4353-91AF-FD9C61F4A0A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{D487F39A-05D0-4353-91AF-FD9C61F4A0A5}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
   <si>
     <t>userID</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>1234567891234567</t>
   </si>
 </sst>
 </file>
@@ -552,7 +555,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52AD206-45A8-404F-9B2E-61F389221470}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,8 +795,8 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>123</v>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>42</v>
@@ -804,7 +807,7 @@
       <c r="E2">
         <v>11</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>123</v>
       </c>
     </row>
@@ -812,8 +815,8 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>456</v>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>41</v>
@@ -824,7 +827,7 @@
       <c r="E3">
         <v>11</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>456</v>
       </c>
     </row>
@@ -1034,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E1EFC9-3BDB-480B-870B-F3F1A4A1440B}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,11 +1048,11 @@
     <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1057,46 +1060,55 @@
         <v>21</v>
       </c>
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>43</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>123</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>44</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>123</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>41</v>
       </c>
     </row>

--- a/src/main/java/Shop/DataBase.xlsx
+++ b/src/main/java/Shop/DataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shop\src\main\java\Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA029BB-4C91-4057-8CB9-DAA32D8A30CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CC7094-4B8C-41DD-B449-011E3D5A6D4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{D487F39A-05D0-4353-91AF-FD9C61F4A0A5}"/>
+    <workbookView xWindow="38280" yWindow="2670" windowWidth="29040" windowHeight="15840" xr2:uid="{D487F39A-05D0-4353-91AF-FD9C61F4A0A5}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
   <si>
     <t>userID</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>1234567891234567</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -552,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E8EBE7-28B8-41C2-84A4-4C758BE9E61E}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,6 +611,20 @@
       </c>
       <c r="D3" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +642,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,7 +705,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,7 +777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52AD206-45A8-404F-9B2E-61F389221470}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/src/main/java/Shop/DataBase.xlsx
+++ b/src/main/java/Shop/DataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shop\src\main\java\Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CC7094-4B8C-41DD-B449-011E3D5A6D4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3DE10E-F56D-4D96-8082-F6ED697B4FB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2670" windowWidth="29040" windowHeight="15840" xr2:uid="{D487F39A-05D0-4353-91AF-FD9C61F4A0A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{D487F39A-05D0-4353-91AF-FD9C61F4A0A5}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
   <si>
     <t>userID</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>e</t>
+  </si>
+  <si>
+    <t>1234567891234560</t>
   </si>
 </sst>
 </file>
@@ -560,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E8EBE7-28B8-41C2-84A4-4C758BE9E61E}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +645,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,6 +693,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -705,7 +709,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,7 +782,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,13 +865,13 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
   </cols>
@@ -887,8 +891,8 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>1234567891234560</v>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>42</v>
@@ -898,8 +902,8 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>1234567891234560</v>
+      <c r="B3" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>41</v>
@@ -912,10 +916,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C065D1B8-CE17-41C7-ADC4-B59CB2100E4F}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,6 +990,26 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -996,7 +1020,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,7 +1084,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1167,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E19"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/Shop/DataBase.xlsx
+++ b/src/main/java/Shop/DataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shop\src\main\java\Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3DE10E-F56D-4D96-8082-F6ED697B4FB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AD1FCC-F8F8-4F47-AA1B-25422D193431}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{D487F39A-05D0-4353-91AF-FD9C61F4A0A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="2" activeTab="5" xr2:uid="{D487F39A-05D0-4353-91AF-FD9C61F4A0A5}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="86">
   <si>
     <t>userID</t>
   </si>
@@ -122,86 +122,191 @@
     <t>shoeName</t>
   </si>
   <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>cardExpiryYear</t>
+  </si>
+  <si>
+    <t>shoePrice</t>
+  </si>
+  <si>
+    <t>Ulica</t>
+  </si>
+  <si>
+    <t>Miasto</t>
+  </si>
+  <si>
+    <t>kod</t>
+  </si>
+  <si>
+    <t>Kraj</t>
+  </si>
+  <si>
+    <t>Imie2</t>
+  </si>
+  <si>
+    <t>Imie1</t>
+  </si>
+  <si>
+    <t>But1</t>
+  </si>
+  <si>
+    <t>But2</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>1234567891234567</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
     <t>shoeBuyPrice</t>
   </si>
   <si>
     <t>shoeSellPrice</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Air Jordan 1 UNC</t>
-  </si>
-  <si>
     <t>Air Jordan 1 Mocha</t>
   </si>
   <si>
     <t>Nike Dunk Low UNC</t>
   </si>
   <si>
-    <t>cardExpiryYear</t>
-  </si>
-  <si>
-    <t>shoePrice</t>
-  </si>
-  <si>
-    <t>Ulica</t>
-  </si>
-  <si>
-    <t>Miasto</t>
-  </si>
-  <si>
-    <t>kod</t>
-  </si>
-  <si>
-    <t>Kraj</t>
-  </si>
-  <si>
-    <t>Imie2</t>
-  </si>
-  <si>
-    <t>Imie1</t>
-  </si>
-  <si>
-    <t>But1</t>
-  </si>
-  <si>
-    <t>But2</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>1234567891234567</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>1234567891234560</t>
+    <t>40</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>sell</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Nike Air Jordan 1 High UNC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +319,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -564,7 +676,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,30 +702,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -621,13 +733,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +757,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,28 +784,27 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -709,16 +820,16 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -743,16 +854,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -760,16 +871,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -782,17 +893,17 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="25.5703125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -806,7 +917,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
         <v>12</v>
@@ -820,10 +931,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D2">
         <v>25</v>
@@ -840,10 +951,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D3">
         <v>25</v>
@@ -862,16 +973,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6223B4D3-A028-46EC-A171-8AC5AF17729D}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
   </cols>
@@ -892,10 +1003,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -903,11 +1014,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
-      </c>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -916,21 +1030,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C065D1B8-CE17-41C7-ADC4-B59CB2100E4F}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="3" width="7.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="7.140625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -949,8 +1064,11 @@
       <c r="F1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -964,13 +1082,16 @@
         <v>40</v>
       </c>
       <c r="E2">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1200</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -984,13 +1105,16 @@
         <v>41</v>
       </c>
       <c r="E3">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1001,13 +1125,384 @@
         <v>3</v>
       </c>
       <c r="D4">
+        <v>42</v>
+      </c>
+      <c r="E4">
+        <v>1300</v>
+      </c>
+      <c r="F4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>40</v>
       </c>
-      <c r="E4">
+      <c r="E5">
+        <v>1200</v>
+      </c>
+      <c r="F5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>1200</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>1200</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>1200</v>
+      </c>
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>1200</v>
+      </c>
+      <c r="F9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>1200</v>
+      </c>
+      <c r="F10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>1200</v>
+      </c>
+      <c r="F11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>1200</v>
+      </c>
+      <c r="F12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="F4">
-        <v>12</v>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>1200</v>
+      </c>
+      <c r="F13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>1200</v>
+      </c>
+      <c r="F14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <v>1200</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>1200</v>
+      </c>
+      <c r="F16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>1200</v>
+      </c>
+      <c r="F17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <v>1200</v>
+      </c>
+      <c r="F18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>1200</v>
+      </c>
+      <c r="F19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>40</v>
+      </c>
+      <c r="E20">
+        <v>1200</v>
+      </c>
+      <c r="F20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1020,15 +1515,15 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="9.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -1084,16 +1579,16 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1110,7 +1605,7 @@
         <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
         <v>18</v>
@@ -1127,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E2">
         <v>123</v>
@@ -1147,7 +1642,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E3">
         <v>123</v>
@@ -1164,10 +1659,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A317C15-72D4-4EDF-A4C3-27B370B6801B}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,319 +1684,474 @@
         <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="C2">
-        <v>40</v>
-      </c>
-      <c r="D2">
-        <v>1200</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="C3">
-        <v>30</v>
-      </c>
-      <c r="D3">
-        <v>1200</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="C4">
         <v>40</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1500</v>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="C5">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6">
         <v>42</v>
       </c>
-      <c r="D5">
-        <v>1200</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6">
-        <v>39</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1500</v>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="C7">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8">
         <v>44</v>
       </c>
-      <c r="D7">
-        <v>1200</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8">
-        <v>41</v>
-      </c>
-      <c r="D8">
-        <v>1200</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
+      <c r="A9" t="s">
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C9">
-        <v>39</v>
-      </c>
-      <c r="D9">
-        <v>1200</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" t="s">
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10">
-        <v>38</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1400</v>
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" t="s">
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11">
-        <v>44</v>
-      </c>
-      <c r="D11">
-        <v>1200</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>21</v>
+      <c r="A12" t="s">
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12">
-        <v>38</v>
-      </c>
-      <c r="D12">
-        <v>1200</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>22</v>
+      <c r="A13" t="s">
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13">
-        <v>39</v>
-      </c>
-      <c r="D13">
-        <v>1200</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>23</v>
+      <c r="A14" t="s">
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14">
-        <v>40</v>
-      </c>
-      <c r="D14">
-        <v>1200</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>24</v>
+      <c r="A15" t="s">
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15">
-        <v>41</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>1200</v>
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>25</v>
+      <c r="A16" t="s">
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16">
-        <v>42</v>
-      </c>
-      <c r="D16">
-        <v>1200</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>26</v>
+      <c r="A17" t="s">
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17">
-        <v>43</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>1200</v>
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>27</v>
+      <c r="A18" t="s">
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18">
-        <v>44</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>1200</v>
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
         <v>28</v>
       </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19">
-        <v>45</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>1200</v>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/java/Shop/DataBase.xlsx
+++ b/src/main/java/Shop/DataBase.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shop\src\main\java\Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AD1FCC-F8F8-4F47-AA1B-25422D193431}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5CDFFD-A47E-4297-AFC9-63B47320BF0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="2" activeTab="5" xr2:uid="{D487F39A-05D0-4353-91AF-FD9C61F4A0A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="7" xr2:uid="{D487F39A-05D0-4353-91AF-FD9C61F4A0A5}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
-    <sheet name="Customer" sheetId="2" r:id="rId2"/>
+    <sheet name="Customer" sheetId="10" r:id="rId2"/>
     <sheet name="Address" sheetId="3" r:id="rId3"/>
     <sheet name="Payment" sheetId="4" r:id="rId4"/>
-    <sheet name="Payout" sheetId="5" r:id="rId5"/>
+    <sheet name="Payout" sheetId="12" r:id="rId5"/>
     <sheet name="Offer" sheetId="6" r:id="rId6"/>
     <sheet name="Order" sheetId="7" r:id="rId7"/>
     <sheet name="ShoeDetails" sheetId="9" r:id="rId8"/>
-    <sheet name="Shoe" sheetId="8" r:id="rId9"/>
+    <sheet name="OrderAddress" sheetId="14" r:id="rId9"/>
+    <sheet name="Shoe" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="93">
   <si>
     <t>userID</t>
   </si>
@@ -158,12 +159,6 @@
     <t>Imie1</t>
   </si>
   <si>
-    <t>But1</t>
-  </si>
-  <si>
-    <t>But2</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -185,15 +180,6 @@
     <t>shoeSellPrice</t>
   </si>
   <si>
-    <t>Air Jordan 1 Mocha</t>
-  </si>
-  <si>
-    <t>Nike Dunk Low UNC</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>0.0</t>
   </si>
   <si>
@@ -203,36 +189,21 @@
     <t>4</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -260,9 +231,6 @@
     <t>18</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -300,6 +268,60 @@
   </si>
   <si>
     <t>Nike Air Jordan 1 High UNC</t>
+  </si>
+  <si>
+    <t>12.12.2012</t>
+  </si>
+  <si>
+    <t>12.12.2013</t>
+  </si>
+  <si>
+    <t>Name2</t>
+  </si>
+  <si>
+    <t>Name1</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>12.12..2014</t>
+  </si>
+  <si>
+    <t>12.12..2015</t>
+  </si>
+  <si>
+    <t>12.12..2016</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
+  <si>
+    <t>Nike Air Jordan 1 High Mocha</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Mischief</t>
+  </si>
+  <si>
+    <t>Nike Air Jordan 1 High Rookie of The Year</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
 </sst>
 </file>
@@ -353,11 +375,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -673,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E8EBE7-28B8-41C2-84A4-4C758BE9E61E}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,10 +726,10 @@
         <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -719,10 +740,10 @@
         <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -733,13 +754,41 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -752,26 +801,605 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C71F64E-1F1B-4599-93CD-346F6FB22EBD}">
-  <dimension ref="A1:G5"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A317C15-72D4-4EDF-A4C3-27B370B6801B}">
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32">
+        <v>44</v>
+      </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33">
+        <v>45</v>
+      </c>
+      <c r="D33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C260BB-C38D-4A80-9066-85C9F98BA80C}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -782,33 +1410,38 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -817,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBBD456-D67D-4F72-AB10-952BA9BC7248}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="B1" sqref="B1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,6 +1516,23 @@
         <v>35</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -890,10 +1540,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52AD206-45A8-404F-9B2E-61F389221470}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
@@ -951,7 +1601,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
@@ -964,6 +1614,26 @@
       </c>
       <c r="F3" s="2">
         <v>456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -972,26 +1642,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6223B4D3-A028-46EC-A171-8AC5AF17729D}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08ECB0A-0616-4EC2-8DFD-65ED0C17F05B}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="A4" sqref="A4:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C1" t="s">
@@ -999,29 +1667,37 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1030,10 +1706,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C065D1B8-CE17-41C7-ADC4-B59CB2100E4F}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,10 +1761,10 @@
         <v>1200</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1108,10 +1784,10 @@
         <v>1250</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1131,10 +1807,10 @@
         <v>1300</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1154,10 +1830,10 @@
         <v>1200</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1177,10 +1853,10 @@
         <v>1200</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1200,10 +1876,10 @@
         <v>1200</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1223,10 +1899,10 @@
         <v>1200</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1246,10 +1922,10 @@
         <v>1200</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1269,10 +1945,10 @@
         <v>1200</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1292,10 +1968,10 @@
         <v>1200</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1315,10 +1991,10 @@
         <v>1200</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G12" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1338,10 +2014,10 @@
         <v>1200</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1361,10 +2037,10 @@
         <v>1200</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1384,10 +2060,10 @@
         <v>1200</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1407,10 +2083,10 @@
         <v>1200</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1430,10 +2106,10 @@
         <v>1200</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G17" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1453,10 +2129,10 @@
         <v>1200</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G18" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1476,10 +2152,10 @@
         <v>1200</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G19" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1499,10 +2175,33 @@
         <v>1200</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G20" t="s">
-        <v>85</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1512,10 +2211,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DD6B5D-5436-4641-92C6-06DBF046B4C4}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E1" sqref="E1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1524,7 +2223,7 @@
     <col min="2" max="2" width="10.7109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="7.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1545,8 +2244,8 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>41255</v>
+      <c r="B2" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1559,8 +2258,8 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>41255</v>
+      <c r="B3" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1569,17 +2268,60 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E1EFC9-3BDB-480B-870B-F3F1A4A1440B}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1587,7 +2329,7 @@
     <col min="1" max="1" width="6.5703125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="9.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -1622,7 +2364,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="E2">
         <v>123</v>
@@ -1642,13 +2384,73 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="E3">
         <v>123</v>
       </c>
       <c r="F3">
         <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5">
+        <v>123</v>
+      </c>
+      <c r="F5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6">
+        <v>123</v>
+      </c>
+      <c r="F6">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1658,500 +2460,143 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A317C15-72D4-4EDF-A4C3-27B370B6801B}">
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BE0952-66CA-4A5B-9A27-97ECC0AC0F1C}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2">
-        <v>38</v>
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5">
-        <v>41</v>
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9">
-        <v>45</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
         <v>63</v>
       </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" t="s">
-        <v>50</v>
+      <c r="F6" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/java/Shop/DataBase.xlsx
+++ b/src/main/java/Shop/DataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shop\src\main\java\Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5CDFFD-A47E-4297-AFC9-63B47320BF0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88693D93-E66D-46B5-BA20-5EA90AE5F1C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="7" xr2:uid="{D487F39A-05D0-4353-91AF-FD9C61F4A0A5}"/>
+    <workbookView xWindow="38280" yWindow="2670" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D487F39A-05D0-4353-91AF-FD9C61F4A0A5}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="94">
   <si>
     <t>userID</t>
   </si>
@@ -129,199 +129,202 @@
     <t>1</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>cardExpiryYear</t>
+  </si>
+  <si>
+    <t>shoePrice</t>
+  </si>
+  <si>
+    <t>Ulica</t>
+  </si>
+  <si>
+    <t>Miasto</t>
+  </si>
+  <si>
+    <t>kod</t>
+  </si>
+  <si>
+    <t>Kraj</t>
+  </si>
+  <si>
+    <t>Imie2</t>
+  </si>
+  <si>
+    <t>Imie1</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>1234567891234567</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>shoeBuyPrice</t>
+  </si>
+  <si>
+    <t>shoeSellPrice</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>sell</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>12.12.2012</t>
+  </si>
+  <si>
+    <t>12.12.2013</t>
+  </si>
+  <si>
+    <t>Name2</t>
+  </si>
+  <si>
+    <t>Name1</t>
+  </si>
+  <si>
+    <t>12.12..2014</t>
+  </si>
+  <si>
+    <t>12.12..2015</t>
+  </si>
+  <si>
+    <t>12.12..2016</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Mischief</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
     <t>43</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>cardExpiryYear</t>
-  </si>
-  <si>
-    <t>shoePrice</t>
-  </si>
-  <si>
-    <t>Ulica</t>
-  </si>
-  <si>
-    <t>Miasto</t>
-  </si>
-  <si>
-    <t>kod</t>
-  </si>
-  <si>
-    <t>Kraj</t>
-  </si>
-  <si>
-    <t>Imie2</t>
-  </si>
-  <si>
-    <t>Imie1</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>1234567891234567</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>shoeBuyPrice</t>
-  </si>
-  <si>
-    <t>shoeSellPrice</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>es</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>sell</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Nike Air Jordan 1 High UNC</t>
-  </si>
-  <si>
-    <t>12.12.2012</t>
-  </si>
-  <si>
-    <t>12.12.2013</t>
-  </si>
-  <si>
-    <t>Name2</t>
-  </si>
-  <si>
-    <t>Name1</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>12.12..2014</t>
-  </si>
-  <si>
-    <t>12.12..2015</t>
-  </si>
-  <si>
-    <t>12.12..2016</t>
-  </si>
-  <si>
-    <t>se</t>
-  </si>
-  <si>
-    <t>Nike Air Jordan 1 High Mocha</t>
-  </si>
-  <si>
-    <t>Nike Dunk Low Mischief</t>
-  </si>
-  <si>
-    <t>Nike Air Jordan 1 High Rookie of The Year</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
+    <t>1235468791234567</t>
+  </si>
+  <si>
+    <t>789</t>
+  </si>
+  <si>
+    <t>12354687912345671234567890</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Jordan 1 High UNC</t>
+  </si>
+  <si>
+    <t>Jordan 1 High Mocha</t>
+  </si>
+  <si>
+    <t>Jordan 1 High ROTY</t>
   </si>
 </sst>
 </file>
@@ -726,10 +729,10 @@
         <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -737,13 +740,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -754,24 +757,24 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
         <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -782,13 +785,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -806,7 +809,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,10 +831,10 @@
         <v>18</v>
       </c>
       <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
         <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -839,543 +842,543 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C2">
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C3">
         <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C4">
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C5">
         <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C6">
         <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C7">
         <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C8">
         <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C9">
         <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C10">
         <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C11">
         <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C12">
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C13">
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C14">
         <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C15">
         <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C16">
         <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C17">
         <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C18">
         <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C19">
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C20">
         <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C21">
         <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C22">
         <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C23">
         <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C24">
         <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C25">
         <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C26">
         <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C27">
         <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C28">
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C29">
         <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C30">
         <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C31">
         <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C32">
         <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C33">
         <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1389,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C260BB-C38D-4A80-9066-85C9F98BA80C}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2">
         <v>43</v>
@@ -1426,25 +1429,26 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C3">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>47</v>
+      <c r="A4">
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1453,7 +1457,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E4"/>
+      <selection activeCell="A4" sqref="A4:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,16 +1491,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1504,33 +1508,33 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1543,7 +1547,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F24"/>
+      <selection activeCell="A4" sqref="A4:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1567,7 +1571,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
         <v>12</v>
@@ -1581,10 +1585,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>25</v>
@@ -1601,10 +1605,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3">
         <v>25</v>
@@ -1618,22 +1622,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1646,12 +1650,12 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C20"/>
+      <selection activeCell="A5" sqref="A5:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -1670,33 +1674,33 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
+      <c r="B2" t="s">
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>40</v>
+      <c r="B3" t="s">
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1706,10 +1710,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C065D1B8-CE17-41C7-ADC4-B59CB2100E4F}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="A21" sqref="A21:G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1761,10 +1765,10 @@
         <v>1200</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1784,10 +1788,10 @@
         <v>1250</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1807,10 +1811,10 @@
         <v>1300</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1830,10 +1834,10 @@
         <v>1200</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1853,10 +1857,10 @@
         <v>1200</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1876,10 +1880,10 @@
         <v>1200</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1899,10 +1903,10 @@
         <v>1200</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1922,10 +1926,10 @@
         <v>1200</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1945,10 +1949,10 @@
         <v>1200</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1968,10 +1972,10 @@
         <v>1200</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1991,10 +1995,10 @@
         <v>1200</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2014,10 +2018,10 @@
         <v>1200</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2037,10 +2041,10 @@
         <v>1200</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2060,10 +2064,10 @@
         <v>1200</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2083,10 +2087,10 @@
         <v>1200</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G16" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2106,10 +2110,10 @@
         <v>1200</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2129,10 +2133,10 @@
         <v>1200</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2152,10 +2156,10 @@
         <v>1200</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2175,33 +2179,10 @@
         <v>1200</v>
       </c>
       <c r="F20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2214,7 +2195,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E6"/>
+      <selection activeCell="A7" sqref="A7:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2245,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2259,7 +2240,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2273,10 +2254,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2287,13 +2268,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2301,7 +2282,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2320,8 +2301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E1EFC9-3BDB-480B-870B-F3F1A4A1440B}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2347,7 +2328,7 @@
         <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
         <v>18</v>
@@ -2364,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E2">
         <v>123</v>
@@ -2384,7 +2365,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E3">
         <v>123</v>
@@ -2395,7 +2376,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2404,7 +2385,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E4">
         <v>12</v>
@@ -2424,7 +2405,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E5">
         <v>123</v>
@@ -2444,7 +2425,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E6">
         <v>123</v>
@@ -2464,16 +2445,16 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A7" sqref="A7:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2504,16 +2485,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2524,36 +2505,36 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2564,16 +2545,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2584,16 +2565,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
